--- a/low.xlsx
+++ b/low.xlsx
@@ -24,63 +24,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
-  <si>
-    <t>펀드명</t>
-  </si>
-  <si>
-    <t>운용사명</t>
-  </si>
-  <si>
-    <t>위험</t>
-  </si>
-  <si>
-    <t>6개월 수익률</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>동양하이플러스단기우량채권증권자투자신탁 1 (채권)</t>
-  </si>
-  <si>
-    <t>동양자산운용</t>
-  </si>
-  <si>
-    <t>낮은위험</t>
   </si>
   <si>
     <t>JP모간연금단기하이일드증권자투자신탁(채권)</t>
   </si>
   <si>
-    <t>제이피모간자산운용</t>
-  </si>
-  <si>
     <t>GB단기채증권투자신탁 1[채권]</t>
-  </si>
-  <si>
-    <t>골든브릿지자산운용</t>
   </si>
   <si>
     <t>이스트스프링물가따라잡기증권자투자신탁[채권]</t>
   </si>
   <si>
-    <t>이스트스프링자산운용</t>
-  </si>
-  <si>
     <t>미래에셋글로벌다이나믹증권자투자신탁 1(채권)</t>
-  </si>
-  <si>
-    <t>미래에셋자산운용</t>
-  </si>
-  <si>
-    <t>삼성베스트MMF법인 1</t>
-  </si>
-  <si>
-    <t>삼성자산운용</t>
-  </si>
-  <si>
-    <t>키움프런티어신종법인용 MMF 1</t>
-  </si>
-  <si>
-    <t>키움투자자산운용 (구 우리자산운용)</t>
   </si>
 </sst>
 </file>
@@ -107,18 +65,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -156,20 +108,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -486,128 +432,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BA0C824-D732-482E-BB5C-08FD499CCB21}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D8" sqref="A6:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="33.796875" customWidth="1"/>
-    <col min="2" max="2" width="22.69921875" customWidth="1"/>
+    <col min="1" max="1" width="52.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" s="2">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" s="2">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B4" s="2">
+        <v>1.39</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="4">
-        <v>1.41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="4">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="4">
-        <v>1.39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="4">
+      <c r="B5" s="2">
         <v>1.38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0.71</v>
       </c>
     </row>
   </sheetData>
